--- a/data/pca/factorExposure/factorExposure_2016-05-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009122852534946537</v>
+        <v>0.01239522986672592</v>
       </c>
       <c r="C2">
-        <v>-0.05682871682952804</v>
+        <v>0.03974919891127223</v>
       </c>
       <c r="D2">
-        <v>0.04312379136898586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05550968929372847</v>
+      </c>
+      <c r="E2">
+        <v>0.08917153098581107</v>
+      </c>
+      <c r="F2">
+        <v>-0.07848271882650275</v>
+      </c>
+      <c r="G2">
+        <v>0.03712658702087555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04065133794230492</v>
+        <v>0.02540807572185422</v>
       </c>
       <c r="C3">
-        <v>-0.1189918262860881</v>
+        <v>0.06657147330795644</v>
       </c>
       <c r="D3">
-        <v>0.08661869159421043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07244616150947122</v>
+      </c>
+      <c r="E3">
+        <v>0.06951837613794348</v>
+      </c>
+      <c r="F3">
+        <v>0.0297531620542854</v>
+      </c>
+      <c r="G3">
+        <v>0.05167018114092421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06117603064552177</v>
+        <v>0.05923726235524029</v>
       </c>
       <c r="C4">
-        <v>-0.06099261691262252</v>
+        <v>0.06304973459414971</v>
       </c>
       <c r="D4">
-        <v>0.02360275422982058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0492583218461539</v>
+      </c>
+      <c r="E4">
+        <v>0.08950930907416932</v>
+      </c>
+      <c r="F4">
+        <v>-0.03597234283707552</v>
+      </c>
+      <c r="G4">
+        <v>0.09777804727953772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03962830543439523</v>
+        <v>0.0349502505783307</v>
       </c>
       <c r="C6">
-        <v>-0.03729356644000099</v>
+        <v>0.02757575014014186</v>
       </c>
       <c r="D6">
-        <v>0.0254796192017024</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05732580965760903</v>
+      </c>
+      <c r="E6">
+        <v>0.0887534435290801</v>
+      </c>
+      <c r="F6">
+        <v>-0.02212616918553784</v>
+      </c>
+      <c r="G6">
+        <v>0.06959942609256488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02560949759311409</v>
+        <v>0.02037945780216931</v>
       </c>
       <c r="C7">
-        <v>-0.04200891618306446</v>
+        <v>0.03650314391277893</v>
       </c>
       <c r="D7">
-        <v>-0.005325659262316406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03607290773652085</v>
+      </c>
+      <c r="E7">
+        <v>0.06526747661682339</v>
+      </c>
+      <c r="F7">
+        <v>-0.06548439727439619</v>
+      </c>
+      <c r="G7">
+        <v>0.1019857301909358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.006107285807444252</v>
+        <v>0.004225415404274127</v>
       </c>
       <c r="C8">
-        <v>-0.03744122978962556</v>
+        <v>0.03275510061516429</v>
       </c>
       <c r="D8">
-        <v>0.02829452523679453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03164350480507417</v>
+      </c>
+      <c r="E8">
+        <v>0.06142110423239455</v>
+      </c>
+      <c r="F8">
+        <v>-0.01522871620903096</v>
+      </c>
+      <c r="G8">
+        <v>0.04051646405176305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03459622242298768</v>
+        <v>0.03797289810931111</v>
       </c>
       <c r="C9">
-        <v>-0.04908385446090063</v>
+        <v>0.05088583907088052</v>
       </c>
       <c r="D9">
-        <v>0.01004029636994104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0351303889612208</v>
+      </c>
+      <c r="E9">
+        <v>0.07493011658081587</v>
+      </c>
+      <c r="F9">
+        <v>-0.04835645242687715</v>
+      </c>
+      <c r="G9">
+        <v>0.09031737873058779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07295157972044566</v>
+        <v>0.09916247057613937</v>
       </c>
       <c r="C10">
-        <v>0.1876878331486024</v>
+        <v>-0.1976324860282655</v>
       </c>
       <c r="D10">
-        <v>-0.009100239117778169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0145889764032492</v>
+      </c>
+      <c r="E10">
+        <v>0.03747411691363615</v>
+      </c>
+      <c r="F10">
+        <v>-0.01691605966428142</v>
+      </c>
+      <c r="G10">
+        <v>0.03368578122121382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04221416473757223</v>
+        <v>0.03751943870259015</v>
       </c>
       <c r="C11">
-        <v>-0.0508724558170871</v>
+        <v>0.04742720625676455</v>
       </c>
       <c r="D11">
-        <v>0.01288659530855779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03081591355266269</v>
+      </c>
+      <c r="E11">
+        <v>0.02814358817078733</v>
+      </c>
+      <c r="F11">
+        <v>-0.03707780991746983</v>
+      </c>
+      <c r="G11">
+        <v>0.0725176021784112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04470020365977649</v>
+        <v>0.03968133008623136</v>
       </c>
       <c r="C12">
-        <v>-0.04635619560955163</v>
+        <v>0.04510898406242591</v>
       </c>
       <c r="D12">
-        <v>0.002075597491017629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02574531174168515</v>
+      </c>
+      <c r="E12">
+        <v>0.03555017235498458</v>
+      </c>
+      <c r="F12">
+        <v>-0.03969085470446241</v>
+      </c>
+      <c r="G12">
+        <v>0.06985499196302937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01307028491549534</v>
+        <v>0.01105973008865639</v>
       </c>
       <c r="C13">
-        <v>-0.05507619970524537</v>
+        <v>0.04219583313766023</v>
       </c>
       <c r="D13">
-        <v>0.006010257642559417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03978601097431077</v>
+      </c>
+      <c r="E13">
+        <v>0.1019349629199102</v>
+      </c>
+      <c r="F13">
+        <v>-0.05474100985996744</v>
+      </c>
+      <c r="G13">
+        <v>0.1006072142486319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008959144509023834</v>
+        <v>0.005270362495816215</v>
       </c>
       <c r="C14">
-        <v>-0.04170785442249463</v>
+        <v>0.03292335687882746</v>
       </c>
       <c r="D14">
-        <v>-0.009725842536819879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02241543193774992</v>
+      </c>
+      <c r="E14">
+        <v>0.05021859154054829</v>
+      </c>
+      <c r="F14">
+        <v>-0.07299176188263373</v>
+      </c>
+      <c r="G14">
+        <v>0.08723128314488834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001466552223732269</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005484655189873486</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007080110853031205</v>
+      </c>
+      <c r="E15">
+        <v>0.004748344646538025</v>
+      </c>
+      <c r="F15">
+        <v>-0.005813324952233612</v>
+      </c>
+      <c r="G15">
+        <v>0.007909731667915939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0392703286244049</v>
+        <v>0.03512183534353376</v>
       </c>
       <c r="C16">
-        <v>-0.04904326058645642</v>
+        <v>0.04462051392920159</v>
       </c>
       <c r="D16">
-        <v>0.004612495356962513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02422590155711684</v>
+      </c>
+      <c r="E16">
+        <v>0.04197700391329379</v>
+      </c>
+      <c r="F16">
+        <v>-0.04794767627106017</v>
+      </c>
+      <c r="G16">
+        <v>0.06109282607095272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02468560452435717</v>
+        <v>0.01822098459025472</v>
       </c>
       <c r="C19">
-        <v>-0.05996936903994752</v>
+        <v>0.04353025054197104</v>
       </c>
       <c r="D19">
-        <v>0.08814933734745037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08933335568081613</v>
+      </c>
+      <c r="E19">
+        <v>0.1139175645036211</v>
+      </c>
+      <c r="F19">
+        <v>-0.06072200743450883</v>
+      </c>
+      <c r="G19">
+        <v>0.05208293141430333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01740956501147444</v>
+        <v>0.01400945764974985</v>
       </c>
       <c r="C20">
-        <v>-0.0483141813102456</v>
+        <v>0.03907857250184562</v>
       </c>
       <c r="D20">
-        <v>0.008290938484748555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03013833041646673</v>
+      </c>
+      <c r="E20">
+        <v>0.07853381730868751</v>
+      </c>
+      <c r="F20">
+        <v>-0.04684345683279793</v>
+      </c>
+      <c r="G20">
+        <v>0.07226292148677955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0119293907876839</v>
+        <v>0.01045670062803594</v>
       </c>
       <c r="C21">
-        <v>-0.05148864237299485</v>
+        <v>0.0408018515321114</v>
       </c>
       <c r="D21">
-        <v>0.03330501606937093</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05431506957701747</v>
+      </c>
+      <c r="E21">
+        <v>0.1216827286371346</v>
+      </c>
+      <c r="F21">
+        <v>-0.08000360887873606</v>
+      </c>
+      <c r="G21">
+        <v>0.1125713979238972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001852659217780348</v>
+        <v>0.003013475481567634</v>
       </c>
       <c r="C22">
-        <v>-0.001415690607767736</v>
+        <v>0.02686619670170102</v>
       </c>
       <c r="D22">
-        <v>0.004548601877503598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0421039116839574</v>
+      </c>
+      <c r="E22">
+        <v>0.04473341140458311</v>
+      </c>
+      <c r="F22">
+        <v>0.01600456627024336</v>
+      </c>
+      <c r="G22">
+        <v>0.05531282074122104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001854016106063021</v>
+        <v>0.003100202118610057</v>
       </c>
       <c r="C23">
-        <v>-0.001458164863836656</v>
+        <v>0.02700589596106431</v>
       </c>
       <c r="D23">
-        <v>0.004563834796308596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0416515998435355</v>
+      </c>
+      <c r="E23">
+        <v>0.04498224449176676</v>
+      </c>
+      <c r="F23">
+        <v>0.01628837499545143</v>
+      </c>
+      <c r="G23">
+        <v>0.05528063756960697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03610666572393111</v>
+        <v>0.03537756438865236</v>
       </c>
       <c r="C24">
-        <v>-0.04980214261322767</v>
+        <v>0.05187948467173741</v>
       </c>
       <c r="D24">
-        <v>0.007137693382021267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02375034561583339</v>
+      </c>
+      <c r="E24">
+        <v>0.0435239536365716</v>
+      </c>
+      <c r="F24">
+        <v>-0.04865913065375686</v>
+      </c>
+      <c r="G24">
+        <v>0.07428308895894364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04924415155771068</v>
+        <v>0.04442128510317581</v>
       </c>
       <c r="C25">
-        <v>-0.06054144917342971</v>
+        <v>0.05579695564305487</v>
       </c>
       <c r="D25">
-        <v>-0.004452802519076241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02222201920034996</v>
+      </c>
+      <c r="E25">
+        <v>0.03396095347197205</v>
+      </c>
+      <c r="F25">
+        <v>-0.03897165887016823</v>
+      </c>
+      <c r="G25">
+        <v>0.08366423399191922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01691487965184148</v>
+        <v>0.01525903761074983</v>
       </c>
       <c r="C26">
-        <v>-0.01740101527447658</v>
+        <v>0.01691702520901177</v>
       </c>
       <c r="D26">
-        <v>-0.001334278032786187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0226998089545806</v>
+      </c>
+      <c r="E26">
+        <v>0.05337315733118902</v>
+      </c>
+      <c r="F26">
+        <v>-0.05684175994851934</v>
+      </c>
+      <c r="G26">
+        <v>0.05487835027822128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0886679447491264</v>
+        <v>0.1353383586380285</v>
       </c>
       <c r="C28">
-        <v>0.2475491419041513</v>
+        <v>-0.2548454965345323</v>
       </c>
       <c r="D28">
-        <v>-0.01023282031330749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03050897835248509</v>
+      </c>
+      <c r="E28">
+        <v>0.05417233049828214</v>
+      </c>
+      <c r="F28">
+        <v>-0.02442483526095128</v>
+      </c>
+      <c r="G28">
+        <v>0.05442680654629472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007637997213003639</v>
+        <v>0.005695809691576601</v>
       </c>
       <c r="C29">
-        <v>-0.03432243324657155</v>
+        <v>0.02958926117396572</v>
       </c>
       <c r="D29">
-        <v>-0.01709245907389157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0144854268917364</v>
+      </c>
+      <c r="E29">
+        <v>0.0488106364655064</v>
+      </c>
+      <c r="F29">
+        <v>-0.06162184028476894</v>
+      </c>
+      <c r="G29">
+        <v>0.09087818784143288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04554414241039238</v>
+        <v>0.04197274308705002</v>
       </c>
       <c r="C30">
-        <v>-0.05341800089963977</v>
+        <v>0.05613433604872036</v>
       </c>
       <c r="D30">
-        <v>0.07228828318785806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09906283070009296</v>
+      </c>
+      <c r="E30">
+        <v>0.08240310298117698</v>
+      </c>
+      <c r="F30">
+        <v>-0.06682327076412824</v>
+      </c>
+      <c r="G30">
+        <v>0.07291978517938241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05931461729818591</v>
+        <v>0.05798289654661856</v>
       </c>
       <c r="C31">
-        <v>-0.04447914894653589</v>
+        <v>0.06056859885836399</v>
       </c>
       <c r="D31">
-        <v>-0.04279078370588404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01901108658725777</v>
+      </c>
+      <c r="E31">
+        <v>0.06764832306178703</v>
+      </c>
+      <c r="F31">
+        <v>-0.02212500631104467</v>
+      </c>
+      <c r="G31">
+        <v>0.08924280808525439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001250460926219628</v>
+        <v>0.004675441971257519</v>
       </c>
       <c r="C32">
-        <v>-0.04655781809929967</v>
+        <v>0.03569599298643061</v>
       </c>
       <c r="D32">
-        <v>0.04860541011811483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05262529386435704</v>
+      </c>
+      <c r="E32">
+        <v>0.05614854260509776</v>
+      </c>
+      <c r="F32">
+        <v>-0.06562054724155295</v>
+      </c>
+      <c r="G32">
+        <v>0.07243560580610908</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03151065698635814</v>
+        <v>0.0267222050391543</v>
       </c>
       <c r="C33">
-        <v>-0.05988330663776704</v>
+        <v>0.05286881162008674</v>
       </c>
       <c r="D33">
-        <v>0.03537766113249716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06701898552283728</v>
+      </c>
+      <c r="E33">
+        <v>0.0933606139082398</v>
+      </c>
+      <c r="F33">
+        <v>-0.06505346010890804</v>
+      </c>
+      <c r="G33">
+        <v>0.1039064334941566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04657377505756449</v>
+        <v>0.04185309291685254</v>
       </c>
       <c r="C34">
-        <v>-0.06472000174871498</v>
+        <v>0.06291204931111732</v>
       </c>
       <c r="D34">
-        <v>0.01528077991049305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03685631452020537</v>
+      </c>
+      <c r="E34">
+        <v>0.0166951174627857</v>
+      </c>
+      <c r="F34">
+        <v>-0.05209755431716464</v>
+      </c>
+      <c r="G34">
+        <v>0.07687194713230859</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01653220735664777</v>
+        <v>0.01438287449541068</v>
       </c>
       <c r="C36">
-        <v>-0.01717055948330879</v>
+        <v>0.01327255033367838</v>
       </c>
       <c r="D36">
-        <v>-0.005836377799938126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0210167302575208</v>
+      </c>
+      <c r="E36">
+        <v>0.06075773249411391</v>
+      </c>
+      <c r="F36">
+        <v>-0.04604670306828512</v>
+      </c>
+      <c r="G36">
+        <v>0.07202056300396187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02869557727728958</v>
+        <v>0.02268964100017196</v>
       </c>
       <c r="C38">
-        <v>-0.03244352682498303</v>
+        <v>0.02429636990181935</v>
       </c>
       <c r="D38">
-        <v>-0.01598204937979635</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01945162335100802</v>
+      </c>
+      <c r="E38">
+        <v>0.05416302010876494</v>
+      </c>
+      <c r="F38">
+        <v>-0.03866896309747805</v>
+      </c>
+      <c r="G38">
+        <v>0.04897603567426099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.047223318193576</v>
+        <v>0.0410786794212967</v>
       </c>
       <c r="C39">
-        <v>-0.06304952854879656</v>
+        <v>0.06265678712427952</v>
       </c>
       <c r="D39">
-        <v>0.01581938336766611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04866632740307689</v>
+      </c>
+      <c r="E39">
+        <v>0.05067318611469923</v>
+      </c>
+      <c r="F39">
+        <v>-0.07110675508317849</v>
+      </c>
+      <c r="G39">
+        <v>0.07092142925114647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01140633383777559</v>
+        <v>0.01355619440340061</v>
       </c>
       <c r="C40">
-        <v>-0.05070300807176178</v>
+        <v>0.03714561551555551</v>
       </c>
       <c r="D40">
-        <v>0.01706709812039939</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02616994712504292</v>
+      </c>
+      <c r="E40">
+        <v>0.08668098961824822</v>
+      </c>
+      <c r="F40">
+        <v>-0.02928008634804554</v>
+      </c>
+      <c r="G40">
+        <v>0.1095881317821872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02180099196633861</v>
+        <v>0.01869884475092892</v>
       </c>
       <c r="C41">
-        <v>-0.01471114974830365</v>
+        <v>0.01058166951653107</v>
       </c>
       <c r="D41">
-        <v>-0.001782965343302762</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01291955040375319</v>
+      </c>
+      <c r="E41">
+        <v>0.06192822755633498</v>
+      </c>
+      <c r="F41">
+        <v>-0.04293471780679584</v>
+      </c>
+      <c r="G41">
+        <v>0.05839973131117288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04131438009790331</v>
+        <v>0.02989450211934762</v>
       </c>
       <c r="C43">
-        <v>-0.03200076907948859</v>
+        <v>0.02382261558076353</v>
       </c>
       <c r="D43">
-        <v>0.02393548612158778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04195934944634998</v>
+      </c>
+      <c r="E43">
+        <v>0.07900011304806644</v>
+      </c>
+      <c r="F43">
+        <v>-0.03548313010057253</v>
+      </c>
+      <c r="G43">
+        <v>0.08730512168983635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01411354933909077</v>
+        <v>0.01549164849184701</v>
       </c>
       <c r="C44">
-        <v>-0.06628439205123053</v>
+        <v>0.04684421069353079</v>
       </c>
       <c r="D44">
-        <v>0.007774238869578653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03016991510365616</v>
+      </c>
+      <c r="E44">
+        <v>0.08587897851077586</v>
+      </c>
+      <c r="F44">
+        <v>-0.05770949538152425</v>
+      </c>
+      <c r="G44">
+        <v>0.0573802817580361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009462384568570924</v>
+        <v>0.009798435012989767</v>
       </c>
       <c r="C46">
-        <v>-0.029223935228475</v>
+        <v>0.02960528312049533</v>
       </c>
       <c r="D46">
-        <v>-0.01752409086824397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009118630818629771</v>
+      </c>
+      <c r="E46">
+        <v>0.05861900135269103</v>
+      </c>
+      <c r="F46">
+        <v>-0.07427061669734367</v>
+      </c>
+      <c r="G46">
+        <v>0.09251474458321943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08801284512310202</v>
+        <v>0.09091316351554915</v>
       </c>
       <c r="C47">
-        <v>-0.06888350407806806</v>
+        <v>0.07934004027720014</v>
       </c>
       <c r="D47">
-        <v>-0.04432005803701762</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02718018003226444</v>
+      </c>
+      <c r="E47">
+        <v>0.06685200972129191</v>
+      </c>
+      <c r="F47">
+        <v>-0.02137370334756816</v>
+      </c>
+      <c r="G47">
+        <v>0.08024687897295121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01912404075365135</v>
+        <v>0.01734757411316788</v>
       </c>
       <c r="C48">
-        <v>-0.01431379661657949</v>
+        <v>0.01563170191034022</v>
       </c>
       <c r="D48">
-        <v>-0.02169065844163915</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.008660756048290192</v>
+      </c>
+      <c r="E48">
+        <v>0.07226455149196474</v>
+      </c>
+      <c r="F48">
+        <v>-0.05911648948201693</v>
+      </c>
+      <c r="G48">
+        <v>0.0814525398634293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08221138054594158</v>
+        <v>0.07107584520123994</v>
       </c>
       <c r="C50">
-        <v>-0.08314109651710645</v>
+        <v>0.07532277586923032</v>
       </c>
       <c r="D50">
-        <v>-0.04259418444220422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01060601864480165</v>
+      </c>
+      <c r="E50">
+        <v>0.07623744763219648</v>
+      </c>
+      <c r="F50">
+        <v>0.008196553265491305</v>
+      </c>
+      <c r="G50">
+        <v>0.09582991854758495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01711874159815098</v>
+        <v>0.01069694411123562</v>
       </c>
       <c r="C51">
-        <v>-0.04885302533859548</v>
+        <v>0.03174841125230677</v>
       </c>
       <c r="D51">
-        <v>0.03903987533038972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05420535304462928</v>
+      </c>
+      <c r="E51">
+        <v>0.05145749500378319</v>
+      </c>
+      <c r="F51">
+        <v>-0.06407758730381832</v>
+      </c>
+      <c r="G51">
+        <v>0.06813932272159615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08358965780442106</v>
+        <v>0.09631949419492196</v>
       </c>
       <c r="C53">
-        <v>-0.07677187319773268</v>
+        <v>0.0854530743663629</v>
       </c>
       <c r="D53">
-        <v>-0.06132546522501438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06149848250349763</v>
+      </c>
+      <c r="E53">
+        <v>0.06194765155520478</v>
+      </c>
+      <c r="F53">
+        <v>-0.01546353209317674</v>
+      </c>
+      <c r="G53">
+        <v>0.07218209210696018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03450482716312755</v>
+        <v>0.02822458024996686</v>
       </c>
       <c r="C54">
-        <v>-0.03859021094899489</v>
+        <v>0.03306056913223916</v>
       </c>
       <c r="D54">
-        <v>-0.00521415523746558</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02189788948691355</v>
+      </c>
+      <c r="E54">
+        <v>0.05921800953096564</v>
+      </c>
+      <c r="F54">
+        <v>-0.06544953406526761</v>
+      </c>
+      <c r="G54">
+        <v>0.08809779039850615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07761085170792996</v>
+        <v>0.0880774628672077</v>
       </c>
       <c r="C55">
-        <v>-0.0556988646213489</v>
+        <v>0.06816868473309594</v>
       </c>
       <c r="D55">
-        <v>-0.06656998574780033</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06243670890802189</v>
+      </c>
+      <c r="E55">
+        <v>0.04262554076606445</v>
+      </c>
+      <c r="F55">
+        <v>-0.00269919101911769</v>
+      </c>
+      <c r="G55">
+        <v>0.05155607744020382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1508804397542227</v>
+        <v>0.1528104748255073</v>
       </c>
       <c r="C56">
-        <v>-0.08597444866182533</v>
+        <v>0.1021769208865125</v>
       </c>
       <c r="D56">
-        <v>-0.05812923898301837</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05718559637532857</v>
+      </c>
+      <c r="E56">
+        <v>0.0401510608493679</v>
+      </c>
+      <c r="F56">
+        <v>0.01666290877356453</v>
+      </c>
+      <c r="G56">
+        <v>0.02195035095008444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04157977883863227</v>
+        <v>0.02612854845685104</v>
       </c>
       <c r="C58">
-        <v>-0.02698171044040032</v>
+        <v>0.02291817571607332</v>
       </c>
       <c r="D58">
-        <v>0.5929663331905235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3610795016921122</v>
+      </c>
+      <c r="E58">
+        <v>0.6534428750525124</v>
+      </c>
+      <c r="F58">
+        <v>0.3910252143980982</v>
+      </c>
+      <c r="G58">
+        <v>-0.4650378411056956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1273177357396541</v>
+        <v>0.142075538237359</v>
       </c>
       <c r="C59">
-        <v>0.1999066727436674</v>
+        <v>-0.1899106280872348</v>
       </c>
       <c r="D59">
-        <v>0.02365635970988281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02700787565801801</v>
+      </c>
+      <c r="E59">
+        <v>0.03057125724207947</v>
+      </c>
+      <c r="F59">
+        <v>-0.03582892299959304</v>
+      </c>
+      <c r="G59">
+        <v>-0.007863610046132287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3075438388374304</v>
+        <v>0.2774430842849219</v>
       </c>
       <c r="C60">
-        <v>-0.106967952312611</v>
+        <v>0.1068122964896558</v>
       </c>
       <c r="D60">
-        <v>0.1893570640702547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2673614410406794</v>
+      </c>
+      <c r="E60">
+        <v>-0.2373308058750183</v>
+      </c>
+      <c r="F60">
+        <v>0.08235626646065819</v>
+      </c>
+      <c r="G60">
+        <v>0.02788022363231966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04576505905667598</v>
+        <v>0.04267100403711808</v>
       </c>
       <c r="C61">
-        <v>-0.06191629488177991</v>
+        <v>0.05864827151837872</v>
       </c>
       <c r="D61">
-        <v>0.01044401615422695</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03971567728497974</v>
+      </c>
+      <c r="E61">
+        <v>0.05146539505671276</v>
+      </c>
+      <c r="F61">
+        <v>-0.05114179915865736</v>
+      </c>
+      <c r="G61">
+        <v>0.08474610141191227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01728353712436329</v>
+        <v>0.0158487243286722</v>
       </c>
       <c r="C63">
-        <v>-0.03390926999838859</v>
+        <v>0.03088007440531862</v>
       </c>
       <c r="D63">
-        <v>-0.02204291829306737</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01413963591086618</v>
+      </c>
+      <c r="E63">
+        <v>0.06400328913710447</v>
+      </c>
+      <c r="F63">
+        <v>-0.03041254532220866</v>
+      </c>
+      <c r="G63">
+        <v>0.07912041885298565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05036308031506766</v>
+        <v>0.0557942440788976</v>
       </c>
       <c r="C64">
-        <v>-0.04879237890442542</v>
+        <v>0.05807578945911755</v>
       </c>
       <c r="D64">
-        <v>0.006319155691270361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006851318713789457</v>
+      </c>
+      <c r="E64">
+        <v>0.04129755195276921</v>
+      </c>
+      <c r="F64">
+        <v>-0.0472871363782012</v>
+      </c>
+      <c r="G64">
+        <v>0.06127233660640465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0807917302627308</v>
+        <v>0.06540776864874662</v>
       </c>
       <c r="C65">
-        <v>-0.03029533412670619</v>
+        <v>0.02820476661249331</v>
       </c>
       <c r="D65">
-        <v>0.05664295830098429</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08515731364652708</v>
+      </c>
+      <c r="E65">
+        <v>0.05608326598108029</v>
+      </c>
+      <c r="F65">
+        <v>-0.002917879909358844</v>
+      </c>
+      <c r="G65">
+        <v>0.02301256880378093</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06260312950202308</v>
+        <v>0.05320438924706741</v>
       </c>
       <c r="C66">
-        <v>-0.08603312851178363</v>
+        <v>0.07995846878057319</v>
       </c>
       <c r="D66">
-        <v>0.03653550306201531</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0729474288936509</v>
+      </c>
+      <c r="E66">
+        <v>0.06050421008204468</v>
+      </c>
+      <c r="F66">
+        <v>-0.06112657249982938</v>
+      </c>
+      <c r="G66">
+        <v>0.08509991935881069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05097564110086827</v>
+        <v>0.04452291990182927</v>
       </c>
       <c r="C67">
-        <v>-0.03189223362950318</v>
+        <v>0.02878671903994832</v>
       </c>
       <c r="D67">
-        <v>-0.02331772523214802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00408316981023639</v>
+      </c>
+      <c r="E67">
+        <v>0.02986506420679286</v>
+      </c>
+      <c r="F67">
+        <v>-0.02739037351407305</v>
+      </c>
+      <c r="G67">
+        <v>0.0388945270579298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.124647855199772</v>
+        <v>0.1485550591039904</v>
       </c>
       <c r="C68">
-        <v>0.2822692688755783</v>
+        <v>-0.2457492395887511</v>
       </c>
       <c r="D68">
-        <v>-0.008576415996190911</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0169154749190984</v>
+      </c>
+      <c r="E68">
+        <v>0.03660710728352905</v>
+      </c>
+      <c r="F68">
+        <v>-0.002921097269998511</v>
+      </c>
+      <c r="G68">
+        <v>0.03560293992343739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09216069216142581</v>
+        <v>0.08753451090115025</v>
       </c>
       <c r="C69">
-        <v>-0.07207952995105091</v>
+        <v>0.08970729766395148</v>
       </c>
       <c r="D69">
-        <v>-0.05121322076898989</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01806156976623967</v>
+      </c>
+      <c r="E69">
+        <v>0.05760642337482858</v>
+      </c>
+      <c r="F69">
+        <v>-0.05173681311078021</v>
+      </c>
+      <c r="G69">
+        <v>0.0842911098506675</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.114551976002467</v>
+        <v>0.1423103136242684</v>
       </c>
       <c r="C71">
-        <v>0.2571814681473692</v>
+        <v>-0.2430778211983605</v>
       </c>
       <c r="D71">
-        <v>0.01158724463944809</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002930170657339901</v>
+      </c>
+      <c r="E71">
+        <v>0.05683891252347394</v>
+      </c>
+      <c r="F71">
+        <v>-0.009152782009108948</v>
+      </c>
+      <c r="G71">
+        <v>0.0622216344546288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09501844598221951</v>
+        <v>0.1015526631968337</v>
       </c>
       <c r="C72">
-        <v>-0.05219305041397371</v>
+        <v>0.05669734900984334</v>
       </c>
       <c r="D72">
-        <v>0.004326542731832992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02867950659533129</v>
+      </c>
+      <c r="E72">
+        <v>0.02627365848094937</v>
+      </c>
+      <c r="F72">
+        <v>-0.02513330635928752</v>
+      </c>
+      <c r="G72">
+        <v>0.07968740626321345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4003051353236536</v>
+        <v>0.3385981083552862</v>
       </c>
       <c r="C73">
-        <v>-0.04078293235270274</v>
+        <v>0.06775092500266812</v>
       </c>
       <c r="D73">
-        <v>0.4503611288883362</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5304777079132541</v>
+      </c>
+      <c r="E73">
+        <v>-0.4334318952164707</v>
+      </c>
+      <c r="F73">
+        <v>0.2303026492274072</v>
+      </c>
+      <c r="G73">
+        <v>-0.0109434746363809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.104854165659586</v>
+        <v>0.1100763585904379</v>
       </c>
       <c r="C74">
-        <v>-0.09392435823876877</v>
+        <v>0.09362565362358068</v>
       </c>
       <c r="D74">
-        <v>-0.04543435626708497</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05039774395967088</v>
+      </c>
+      <c r="E74">
+        <v>0.06123580171635924</v>
+      </c>
+      <c r="F74">
+        <v>0.02118844213770486</v>
+      </c>
+      <c r="G74">
+        <v>0.05235851046859531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2588652900235593</v>
+        <v>0.2613755031135055</v>
       </c>
       <c r="C75">
-        <v>-0.0954132239593886</v>
+        <v>0.1265128917977153</v>
       </c>
       <c r="D75">
-        <v>-0.1354053027049141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1508231940288688</v>
+      </c>
+      <c r="E75">
+        <v>0.02695009060549125</v>
+      </c>
+      <c r="F75">
+        <v>0.06355673217580694</v>
+      </c>
+      <c r="G75">
+        <v>-0.05518264162141306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1154454684829782</v>
+        <v>0.1295752289450884</v>
       </c>
       <c r="C76">
-        <v>-0.08036887945191826</v>
+        <v>0.09172570779221961</v>
       </c>
       <c r="D76">
-        <v>-0.07499249758621575</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08294591251456036</v>
+      </c>
+      <c r="E76">
+        <v>0.0681363358368363</v>
+      </c>
+      <c r="F76">
+        <v>-0.003862952877076379</v>
+      </c>
+      <c r="G76">
+        <v>0.03653923194782061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07787487594040722</v>
+        <v>0.06395700191064625</v>
       </c>
       <c r="C77">
-        <v>-0.05162303188565834</v>
+        <v>0.06192484092035141</v>
       </c>
       <c r="D77">
-        <v>0.04812332852902453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04774960525315475</v>
+      </c>
+      <c r="E77">
+        <v>0.1013047088862696</v>
+      </c>
+      <c r="F77">
+        <v>-0.1797634509888437</v>
+      </c>
+      <c r="G77">
+        <v>-0.07953228345573868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04809518810763209</v>
+        <v>0.04547878019585785</v>
       </c>
       <c r="C78">
-        <v>-0.04730541363849102</v>
+        <v>0.05638750262215279</v>
       </c>
       <c r="D78">
-        <v>0.02549661695543548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05684704447663025</v>
+      </c>
+      <c r="E78">
+        <v>0.0608965393786315</v>
+      </c>
+      <c r="F78">
+        <v>-0.0531058173587669</v>
+      </c>
+      <c r="G78">
+        <v>0.06642336517111927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03089005137715039</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0449833618661256</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07993650155695024</v>
+      </c>
+      <c r="E79">
+        <v>0.06026231738302903</v>
+      </c>
+      <c r="F79">
+        <v>0.02661606410927844</v>
+      </c>
+      <c r="G79">
+        <v>0.03490383081342148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03975872319238723</v>
+        <v>0.03064607999230105</v>
       </c>
       <c r="C80">
-        <v>-0.04822247473016742</v>
+        <v>0.04929836306326106</v>
       </c>
       <c r="D80">
-        <v>0.03225002837875913</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04025677726297319</v>
+      </c>
+      <c r="E80">
+        <v>0.01952328323239616</v>
+      </c>
+      <c r="F80">
+        <v>-0.05346759944323524</v>
+      </c>
+      <c r="G80">
+        <v>0.004864485944426684</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1414803803698279</v>
+        <v>0.1416544553852039</v>
       </c>
       <c r="C81">
-        <v>-0.07276338991627142</v>
+        <v>0.09166628315795051</v>
       </c>
       <c r="D81">
-        <v>-0.1078025740045205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1265717535244831</v>
+      </c>
+      <c r="E81">
+        <v>0.06528947071412367</v>
+      </c>
+      <c r="F81">
+        <v>0.03195394559739916</v>
+      </c>
+      <c r="G81">
+        <v>-0.01090145251261522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1833445089016451</v>
+        <v>0.2193368282990202</v>
       </c>
       <c r="C82">
-        <v>-0.08623835766031498</v>
+        <v>0.1505166623768355</v>
       </c>
       <c r="D82">
-        <v>-0.1855431005650688</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2475553681280693</v>
+      </c>
+      <c r="E82">
+        <v>-0.03137778720451107</v>
+      </c>
+      <c r="F82">
+        <v>-0.04452136093392982</v>
+      </c>
+      <c r="G82">
+        <v>0.05788561786676245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03944808560766925</v>
+        <v>0.02715221947298392</v>
       </c>
       <c r="C83">
-        <v>-0.03033092651793728</v>
+        <v>0.04314695215693921</v>
       </c>
       <c r="D83">
-        <v>0.03895923611893232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03030838294324916</v>
+      </c>
+      <c r="E83">
+        <v>0.02849966846830844</v>
+      </c>
+      <c r="F83">
+        <v>-0.0430563922522215</v>
+      </c>
+      <c r="G83">
+        <v>0.01168602520843215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000439946865323558</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0001518128789329732</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001906585147937677</v>
+      </c>
+      <c r="E84">
+        <v>0.002236085620354558</v>
+      </c>
+      <c r="F84">
+        <v>0.0007211034862586481</v>
+      </c>
+      <c r="G84">
+        <v>0.002789850176294359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.222577416050758</v>
+        <v>0.2053120548119908</v>
       </c>
       <c r="C85">
-        <v>-0.09636858102643575</v>
+        <v>0.1125411303152436</v>
       </c>
       <c r="D85">
-        <v>-0.1712481430855104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1287142630523068</v>
+      </c>
+      <c r="E85">
+        <v>-0.01568927403076657</v>
+      </c>
+      <c r="F85">
+        <v>0.0991155037372653</v>
+      </c>
+      <c r="G85">
+        <v>-0.01535306792836557</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007618979984757245</v>
+        <v>0.01076279618879799</v>
       </c>
       <c r="C86">
-        <v>-0.02770762140843971</v>
+        <v>0.01910101820306407</v>
       </c>
       <c r="D86">
-        <v>0.04401785085524991</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05568263718850675</v>
+      </c>
+      <c r="E86">
+        <v>0.08285522986320924</v>
+      </c>
+      <c r="F86">
+        <v>-0.08381543871469224</v>
+      </c>
+      <c r="G86">
+        <v>0.08165522522688773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0243365335174302</v>
+        <v>0.02529079166826421</v>
       </c>
       <c r="C87">
-        <v>-0.00546841814060525</v>
+        <v>0.01300611154928494</v>
       </c>
       <c r="D87">
-        <v>0.07877664454909644</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07681971062372812</v>
+      </c>
+      <c r="E87">
+        <v>0.1291972103166621</v>
+      </c>
+      <c r="F87">
+        <v>-0.0743977707258054</v>
+      </c>
+      <c r="G87">
+        <v>0.02399429157899463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.108909260470063</v>
+        <v>0.09364591541670882</v>
       </c>
       <c r="C88">
-        <v>-0.0719880512218961</v>
+        <v>0.0612910237115839</v>
       </c>
       <c r="D88">
-        <v>-0.02252444309011627</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007988185526231215</v>
+      </c>
+      <c r="E88">
+        <v>0.05581659711053268</v>
+      </c>
+      <c r="F88">
+        <v>-0.05875629618492061</v>
+      </c>
+      <c r="G88">
+        <v>0.04440535358539699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1775733234514956</v>
+        <v>0.2150708045249264</v>
       </c>
       <c r="C89">
-        <v>0.3780909411208739</v>
+        <v>-0.3820076705458839</v>
       </c>
       <c r="D89">
-        <v>-0.02553163800616621</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02277984161792223</v>
+      </c>
+      <c r="E89">
+        <v>0.07505904886394492</v>
+      </c>
+      <c r="F89">
+        <v>-0.09874847372546022</v>
+      </c>
+      <c r="G89">
+        <v>0.002342504546141175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1732814536125924</v>
+        <v>0.1972855677609717</v>
       </c>
       <c r="C90">
-        <v>0.338252240601205</v>
+        <v>-0.3135789137150647</v>
       </c>
       <c r="D90">
-        <v>-0.03927573723143576</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02473726642401243</v>
+      </c>
+      <c r="E90">
+        <v>0.05499742852014039</v>
+      </c>
+      <c r="F90">
+        <v>-0.02875330908591961</v>
+      </c>
+      <c r="G90">
+        <v>0.01886501943944987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1918435947561185</v>
+        <v>0.1886381994027795</v>
       </c>
       <c r="C91">
-        <v>-0.1232113157986847</v>
+        <v>0.140638093389668</v>
       </c>
       <c r="D91">
-        <v>-0.1296455644237337</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1311558310983867</v>
+      </c>
+      <c r="E91">
+        <v>0.04359743495278576</v>
+      </c>
+      <c r="F91">
+        <v>0.0167346747548396</v>
+      </c>
+      <c r="G91">
+        <v>-0.00487382178958388</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1586095042484303</v>
+        <v>0.1787400066123159</v>
       </c>
       <c r="C92">
-        <v>0.2874998494494675</v>
+        <v>-0.2924586765293518</v>
       </c>
       <c r="D92">
-        <v>-0.02323545054646829</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02028672608259482</v>
+      </c>
+      <c r="E92">
+        <v>0.06829222755959997</v>
+      </c>
+      <c r="F92">
+        <v>-0.0580038203186105</v>
+      </c>
+      <c r="G92">
+        <v>0.03121512071823971</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1931902618068103</v>
+        <v>0.2181702601168632</v>
       </c>
       <c r="C93">
-        <v>0.3413084173999241</v>
+        <v>-0.3220135147821463</v>
       </c>
       <c r="D93">
-        <v>-0.03973296333847634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02069212253286017</v>
+      </c>
+      <c r="E93">
+        <v>0.04210138978149687</v>
+      </c>
+      <c r="F93">
+        <v>-0.002633303194650405</v>
+      </c>
+      <c r="G93">
+        <v>0.04249591937784672</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3417922268769299</v>
+        <v>0.3424537059771698</v>
       </c>
       <c r="C94">
-        <v>-0.1398252961000481</v>
+        <v>0.1813969997514874</v>
       </c>
       <c r="D94">
-        <v>-0.3727451768846359</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4068199363945983</v>
+      </c>
+      <c r="E94">
+        <v>-0.01388885787791254</v>
+      </c>
+      <c r="F94">
+        <v>0.1024514166115115</v>
+      </c>
+      <c r="G94">
+        <v>-0.4009805235818437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1178495071843708</v>
+        <v>0.08653487299873983</v>
       </c>
       <c r="C95">
-        <v>-0.06292558298432187</v>
+        <v>0.06065101542489604</v>
       </c>
       <c r="D95">
-        <v>0.2174120738012253</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2005214921346987</v>
+      </c>
+      <c r="E95">
+        <v>-0.0858444536427808</v>
+      </c>
+      <c r="F95">
+        <v>-0.7467389601508595</v>
+      </c>
+      <c r="G95">
+        <v>-0.5269756005470702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1941488822439969</v>
+        <v>0.1871505677550027</v>
       </c>
       <c r="C98">
-        <v>-0.01864969692259145</v>
+        <v>0.04543931936054221</v>
       </c>
       <c r="D98">
-        <v>0.1532898670145616</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2025082824450422</v>
+      </c>
+      <c r="E98">
+        <v>-0.127229289649318</v>
+      </c>
+      <c r="F98">
+        <v>0.08464261378668157</v>
+      </c>
+      <c r="G98">
+        <v>0.06958779425019421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007418216523937681</v>
+        <v>0.005689029901629284</v>
       </c>
       <c r="C101">
-        <v>-0.03435236612524664</v>
+        <v>0.02915581144458707</v>
       </c>
       <c r="D101">
-        <v>-0.01685865610423106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01435266959095944</v>
+      </c>
+      <c r="E101">
+        <v>0.04949221778567319</v>
+      </c>
+      <c r="F101">
+        <v>-0.0623061111637854</v>
+      </c>
+      <c r="G101">
+        <v>0.090817275420712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1248997399291417</v>
+        <v>0.1271865404405607</v>
       </c>
       <c r="C102">
-        <v>-0.0671420535052208</v>
+        <v>0.09898891145933528</v>
       </c>
       <c r="D102">
-        <v>-0.04984562572819154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05854546885938221</v>
+      </c>
+      <c r="E102">
+        <v>-0.01342745061548485</v>
+      </c>
+      <c r="F102">
+        <v>-0.02276108213415804</v>
+      </c>
+      <c r="G102">
+        <v>-0.0107676277171789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
